--- a/export/phieutra.xlsx
+++ b/export/phieutra.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Mã PT</t>
   </si>
@@ -48,6 +48,66 @@
   </si>
   <si>
     <t>17/04/2024</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Trúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Thanh Phương</t>
+  </si>
+  <si>
+    <t>30/03/2024</t>
+  </si>
+  <si>
+    <t>02/05/2024</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Võ Đăng Khoa</t>
+  </si>
+  <si>
+    <t>Tiến Cường</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>19/05/2024</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Trịnh Hoàng Tuấn</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Lê Hoàng Nhật</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
   </si>
 </sst>
 </file>
@@ -135,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -143,8 +203,8 @@
   <cols>
     <col min="1" max="1" width="8.68359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.7421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.05078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.87890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.7578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="32.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.22265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.77734375" customWidth="true" bestFit="true"/>
   </cols>
@@ -189,6 +249,186 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
